--- a/manifest_template.xlsx
+++ b/manifest_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\MIW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4677C55D-C626-4321-8700-7DEB3B1FE4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A851FA-92BF-4340-BEB5-DED70945ABA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{B8206EA8-18DD-4E6B-93A5-A429C2DC1809}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B8206EA8-18DD-4E6B-93A5-A429C2DC1809}"/>
   </bookViews>
   <sheets>
     <sheet name="manifest umroh-haji" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>Tanggal DD/Bulan/YYYY</t>
   </si>
@@ -42,21 +42,12 @@
     <t>Sex</t>
   </si>
   <si>
-    <t>Mr/Mrs</t>
-  </si>
-  <si>
-    <t>$name</t>
-  </si>
-  <si>
     <t>Name of Pastport</t>
   </si>
   <si>
     <t>Marketing</t>
   </si>
   <si>
-    <t>default("Eli Rahmalia")</t>
-  </si>
-  <si>
     <t>Nama Ayah</t>
   </si>
   <si>
@@ -69,12 +60,6 @@
     <t>City</t>
   </si>
   <si>
-    <t>DD/Bulan/YY</t>
-  </si>
-  <si>
-    <t>$alamat</t>
-  </si>
-  <si>
     <t>No.Passport</t>
   </si>
   <si>
@@ -106,30 +91,6 @@
   </si>
   <si>
     <t>Keterangan</t>
-  </si>
-  <si>
-    <t>$nomor_passport</t>
-  </si>
-  <si>
-    <t>Bandung</t>
-  </si>
-  <si>
-    <t>$created_at</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>current date - birth date</t>
-  </si>
-  <si>
-    <t>$roomlist</t>
-  </si>
-  <si>
-    <t>$nik</t>
-  </si>
-  <si>
-    <t>$keterangan</t>
   </si>
   <si>
     <t>PT MADINAH IMAN WISATA</t>
@@ -571,6 +532,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -598,38 +601,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -642,9 +616,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,16 +636,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -992,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE5454E-19F0-49A3-9794-44CE7983C536}">
   <dimension ref="B1:AD11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,509 +967,397 @@
   <sheetData>
     <row r="1" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
+      <c r="B2" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
     </row>
     <row r="3" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
     </row>
     <row r="4" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
     </row>
     <row r="5" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28" t="s">
+      <c r="L5" s="24"/>
+      <c r="M5" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD5" s="26"/>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B6" s="13"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="27" t="s">
+      <c r="M6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="27"/>
-      <c r="M5" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="T5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="U5" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="AD5" s="24"/>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="4" t="s">
+      <c r="N6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="O6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="P6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="25"/>
+        <v>13</v>
+      </c>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="27"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U7" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD7" s="26"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="28"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U8" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD8" s="26"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
+      <c r="X8" s="23"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="28"/>
     </row>
     <row r="9" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U9" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD9" s="26"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="28"/>
     </row>
     <row r="10" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U10" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD10" s="26"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="28"/>
     </row>
     <row r="11" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="B11" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="51"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K2:AD4"/>
+    <mergeCell ref="M5:P5"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W7:AB7"/>
+    <mergeCell ref="W8:AB8"/>
+    <mergeCell ref="W9:AB9"/>
+    <mergeCell ref="W10:AB10"/>
+    <mergeCell ref="W11:AB11"/>
+    <mergeCell ref="W5:AB6"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="AC5:AD6"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U5:V6"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G5:H6"/>
@@ -1525,38 +1374,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="AC5:AD6"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="U5:V6"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K2:AD4"/>
-    <mergeCell ref="M5:P5"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W7:AB7"/>
-    <mergeCell ref="W8:AB8"/>
-    <mergeCell ref="W9:AB9"/>
-    <mergeCell ref="W10:AB10"/>
-    <mergeCell ref="W11:AB11"/>
-    <mergeCell ref="W5:AB6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1575,25 +1398,25 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="24"/>
+      <c r="B2" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="26"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -1601,23 +1424,23 @@
       <c r="S2" s="5"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="12"/>
+      <c r="B3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="34"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
@@ -1625,21 +1448,21 @@
       <c r="S3" s="5"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="30"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="34"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -1647,21 +1470,21 @@
       <c r="S4" s="5"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="30"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="34"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -1669,23 +1492,23 @@
       <c r="S5" s="5"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="12"/>
+      <c r="B6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="34"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -1693,21 +1516,21 @@
       <c r="S6" s="5"/>
     </row>
     <row r="7" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="13"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="35"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -1715,7 +1538,7 @@
       <c r="S7" s="5"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1735,7 +1558,7 @@
       <c r="S8" s="5"/>
     </row>
     <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1755,288 +1578,315 @@
       <c r="S9" s="5"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="R10" s="22"/>
-      <c r="S10" s="24"/>
+      <c r="B10" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="25"/>
+      <c r="S10" s="26"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="25"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="27"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>1</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="26"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="28"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>2</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="26"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="28"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>3</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="26"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="28"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>4</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="26"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="28"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>5</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="26"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="28"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>6</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="26"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="28"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>7</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="26"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="28"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>8</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="26"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="28"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B20" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="51"/>
+      <c r="B20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:F11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J5"/>
+    <mergeCell ref="B6:J7"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="Q10:S11"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="O10:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
@@ -2053,56 +1903,29 @@
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="K20:L20"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="O10:P11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J5"/>
-    <mergeCell ref="B6:J7"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="Q10:S11"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2121,78 +1944,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="44"/>
+      <c r="B2" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="50"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46" t="s">
+      <c r="C3" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" s="53"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="47"/>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="M4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N4" s="46"/>
-      <c r="O4" s="47"/>
+        <v>13</v>
+      </c>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
@@ -2267,22 +2090,22 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="53"/>
+      <c r="B9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2302,83 +2125,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6032619-463E-4307-8DF6-4DD6E1662BC3}">
   <dimension ref="B2:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
+      <c r="B2" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+        <v>24</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2390,16 +2209,12 @@
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -2411,16 +2226,12 @@
       <c r="P5" s="1"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2432,16 +2243,12 @@
       <c r="P6" s="1"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -2453,23 +2260,21 @@
       <c r="P7" s="1"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="49"/>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
